--- a/test_num.xlsx
+++ b/test_num.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>张三三三三-董事长</t>
   </si>
@@ -36,6 +36,47 @@
   <si>
     <t>123909809348</t>
   </si>
+  <si>
+    <t>23撒乐凯大街</t>
+  </si>
+  <si>
+    <r>
+      <t>鼎折覆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>餗</t>
+    </r>
+  </si>
+  <si>
+    <t>水电费</t>
+  </si>
+  <si>
+    <t>方SV</t>
+  </si>
+  <si>
+    <t>水电费人</t>
+  </si>
+  <si>
+    <t>34345v</t>
+  </si>
+  <si>
+    <t>幅度大哥</t>
+  </si>
+  <si>
+    <t>5太不方便</t>
+  </si>
+  <si>
+    <t>水电费4</t>
+  </si>
+  <si>
+    <t>喜欢吗</t>
+  </si>
 </sst>
 </file>
 
@@ -47,7 +88,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -57,6 +98,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -215,6 +262,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -552,140 +605,140 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,10 +754,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1031,7 +1087,7 @@
   <dimension ref="A1:C279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1072,39 +1128,59 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2"/>
@@ -1425,28 +1501,28 @@
       <c r="A123" s="2"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="5"/>
+      <c r="A124" s="6"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="5"/>
+      <c r="A125" s="6"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="5"/>
+      <c r="A126" s="6"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="5"/>
+      <c r="A127" s="6"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="5"/>
+      <c r="A128" s="6"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="5"/>
+      <c r="A129" s="6"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="5"/>
+      <c r="A130" s="6"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="5"/>
+      <c r="A131" s="6"/>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="2"/>
@@ -1554,7 +1630,7 @@
       <c r="A166" s="2"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="5"/>
+      <c r="A167" s="6"/>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="2"/>
@@ -1884,7 +1960,7 @@
       <c r="A276" s="2"/>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="6"/>
+      <c r="A279" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
